--- a/medicine/Bioéthique/Presidential_Commission_for_the_Study_of_Bioethical_Issues/Presidential_Commission_for_the_Study_of_Bioethical_Issues.xlsx
+++ b/medicine/Bioéthique/Presidential_Commission_for_the_Study_of_Bioethical_Issues/Presidential_Commission_for_the_Study_of_Bioethical_Issues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Presidential Commission for the Study of Bioethical Issues (Commission présidentielle pour l'étude des enjeux de bioéthique, abrégée PCSBI) est une commission présidentielle américaine mise sur pied par Barack Obama à travers l'ordre exécutif no 13 521 du 24 novembre 2009. Son premier rapport, qui traite de la biologie de synthèse, a été publié le 16 décembre 2010.
 </t>
@@ -511,7 +523,9 @@
           <t>Prédécesseurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle succède au President's Council on Bioethics (en), nommé par George W. Bush, qui lui-même succéda au National Bioethics Advisory Commission, nommé par Bill Clinton en 1996.
 </t>
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La commission est présidée par Amy Gutmann, présidente de l'université de Pennsylvanie, secondée par James W. Wagner (en), président de l'université Emory à Atlanta. Les autres membres sont :
 Lonnie Ali, M.B.A
